--- a/CDM Content/Energy &  Resources/CDM_EmissionFactor.xlsx
+++ b/CDM Content/Energy &  Resources/CDM_EmissionFactor.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,21 +524,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABB3787A39AC7946B91DE94D6169D5E4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c3b2cc69efe0420e2057b4cbb3381b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da2ca412-be8f-4031-b82f-0db1c7fd28cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918d4b4cb84e834350b9c914eb39184c" ns2:_="">
     <xsd:import namespace="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
@@ -722,31 +707,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7585A1D-C080-4C14-BC77-37D3225C3745}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -762,4 +738,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>